--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659695.586028898</v>
+        <v>1659294.498411809</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.4606773142</v>
+        <v>244709.4606773128</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>229.1924286376164</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>115.9164955136302</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -744,19 +744,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>78.30075368393399</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.58102001082765</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.77333445464502</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>142.2725166791566</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>305.2003733124754</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>158.7663538778843</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>78.30075368393399</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>75.6193723711135</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>205.2918473928504</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>268.6107013963115</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.4316850747625</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.1040133159658</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1218,13 +1218,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1266,10 +1266,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>177.5949300953106</v>
+        <v>145.3842180361617</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.1819585990573</v>
+        <v>280.181958599057</v>
       </c>
       <c r="C11" t="n">
-        <v>268.193275556739</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E11" t="n">
-        <v>280.9167171711725</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0218011565722</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348821</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127951027</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.4355400921679</v>
+        <v>73.09796271446025</v>
       </c>
       <c r="T11" t="n">
-        <v>112.1942112825173</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U11" t="n">
-        <v>142.4153373993642</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.6883358392364</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>248.9884353171933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>189.7188785638425</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>77.67202513757962</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>149.9377938809953</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.79866947375434</v>
+        <v>71.7986694737541</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915483</v>
+        <v>57.99866431915459</v>
       </c>
       <c r="D13" t="n">
-        <v>41.62002871673322</v>
+        <v>41.62002871673297</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251267</v>
+        <v>40.56777857251242</v>
       </c>
       <c r="F13" t="n">
-        <v>41.03470290069897</v>
+        <v>41.03470290069873</v>
       </c>
       <c r="G13" t="n">
-        <v>57.30940562204681</v>
+        <v>57.30940562204657</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473723</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>32.83986842956634</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.10541804798389</v>
+        <v>38.10541804798365</v>
       </c>
       <c r="S13" t="n">
-        <v>50.83354423140587</v>
+        <v>65.85144904658094</v>
       </c>
       <c r="T13" t="n">
-        <v>120.9260181286963</v>
+        <v>120.926018128696</v>
       </c>
       <c r="U13" t="n">
-        <v>174.3971915920094</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2068058733799</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W13" t="n">
-        <v>173.3736919439932</v>
+        <v>173.373691943993</v>
       </c>
       <c r="X13" t="n">
-        <v>119.0187939397963</v>
+        <v>119.0187939397961</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.893661695864</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>280.181958599057</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D14" t="n">
-        <v>259.174579601267</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711725</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F14" t="n">
-        <v>118.5752995969786</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G14" t="n">
-        <v>302.0218011565722</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5719161348821</v>
+        <v>159.5620588674868</v>
       </c>
       <c r="I14" t="n">
-        <v>61.16788127951027</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>142.4153373993642</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>223.6883358392364</v>
+        <v>223.6883358392361</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9884353171933</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499399</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.6852913461387</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>77.67202513758049</v>
+        <v>77.67202513757962</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.79866947375434</v>
+        <v>71.7986694737541</v>
       </c>
       <c r="C16" t="n">
-        <v>57.99866431915483</v>
+        <v>57.99866431915459</v>
       </c>
       <c r="D16" t="n">
-        <v>41.62002871673322</v>
+        <v>41.62002871673297</v>
       </c>
       <c r="E16" t="n">
-        <v>40.56777857251267</v>
+        <v>40.56777857251242</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069897</v>
+        <v>41.03470290069873</v>
       </c>
       <c r="G16" t="n">
-        <v>57.30940562204681</v>
+        <v>57.30940562204657</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.85777324473699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956658</v>
+        <v>32.83986842956634</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798389</v>
+        <v>38.10541804798365</v>
       </c>
       <c r="S16" t="n">
-        <v>65.85144904657487</v>
+        <v>101.6515194465674</v>
       </c>
       <c r="T16" t="n">
-        <v>120.9260181286963</v>
+        <v>120.926018128696</v>
       </c>
       <c r="U16" t="n">
-        <v>174.3971915920094</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>148.2068058733799</v>
+        <v>64.54896222865705</v>
       </c>
       <c r="W16" t="n">
-        <v>173.3736919439932</v>
+        <v>173.373691943993</v>
       </c>
       <c r="X16" t="n">
-        <v>119.0187939397963</v>
+        <v>119.0187939397961</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.893661695864</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>37.91997247481568</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.91997247481434</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.26765881265866</v>
+        <v>14.26765881265776</v>
       </c>
       <c r="T20" t="n">
         <v>51.02633000300699</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>121.493002135362</v>
       </c>
       <c r="T21" t="n">
-        <v>97.83333659764656</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>38.47629877892022</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353611</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2570,10 +2570,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>20.06828559947608</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.59689816205266</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133613</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
         <v>264.6842555723119</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>8.751807955914288</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2849,10 +2849,10 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>212.0052593415132</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2883,7 +2883,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8757236914447</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.367213975254</v>
+        <v>248.3672139752539</v>
       </c>
       <c r="C32" t="n">
         <v>236.3785309329357</v>
@@ -3035,7 +3035,7 @@
         <v>227.3598349774637</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1019725473693</v>
+        <v>249.1019725473692</v>
       </c>
       <c r="F32" t="n">
         <v>268.2737886353464</v>
@@ -3044,10 +3044,10 @@
         <v>270.2070565327689</v>
       </c>
       <c r="H32" t="n">
-        <v>187.7571715110789</v>
+        <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570695</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836463</v>
+        <v>43.62079546836458</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871399</v>
+        <v>80.37946665871394</v>
       </c>
       <c r="U32" t="n">
-        <v>110.600592775561</v>
+        <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
         <v>191.8735912154331</v>
@@ -3095,7 +3095,7 @@
         <v>236.4739489261366</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.8705467223354</v>
+        <v>247.8705467223353</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326555</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995108</v>
+        <v>39.98392484995102</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535156</v>
+        <v>26.18391969535151</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929952</v>
+        <v>9.805284092929895</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709401</v>
+        <v>8.753033948709344</v>
       </c>
       <c r="F34" t="n">
-        <v>9.21995827689571</v>
+        <v>9.219958276895653</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824355</v>
+        <v>25.49466099824349</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093397</v>
+        <v>16.04302862093391</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763315</v>
+        <v>1.025123805763258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180625</v>
+        <v>6.290673424180568</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276437</v>
+        <v>69.83677482276431</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489301</v>
+        <v>89.11127350489295</v>
       </c>
       <c r="U34" t="n">
-        <v>142.5824469682062</v>
+        <v>142.5824469682061</v>
       </c>
       <c r="V34" t="n">
-        <v>116.3920612495767</v>
+        <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
         <v>141.5589473201899</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599305</v>
+        <v>87.20404931599299</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206073</v>
+        <v>78.07891707206068</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133636</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133546</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.9789621687866</v>
+        <v>466.4823902316599</v>
       </c>
       <c r="C2" t="n">
-        <v>394.9789621687866</v>
+        <v>466.4823902316599</v>
       </c>
       <c r="D2" t="n">
-        <v>394.9789621687866</v>
+        <v>466.4823902316599</v>
       </c>
       <c r="E2" t="n">
-        <v>394.9789621687866</v>
+        <v>466.4823902316599</v>
       </c>
       <c r="F2" t="n">
-        <v>384.8681755193609</v>
+        <v>456.3716035822343</v>
       </c>
       <c r="G2" t="n">
-        <v>372.804593013953</v>
+        <v>444.3080210768263</v>
       </c>
       <c r="H2" t="n">
-        <v>39.98331861126225</v>
+        <v>212.8005174024663</v>
       </c>
       <c r="I2" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="J2" t="n">
-        <v>39.98331861126225</v>
+        <v>111.981862884068</v>
       </c>
       <c r="K2" t="n">
-        <v>252.1162979219384</v>
+        <v>352.1222349288507</v>
       </c>
       <c r="L2" t="n">
-        <v>600.0016710068846</v>
+        <v>700.0076080137969</v>
       </c>
       <c r="M2" t="n">
-        <v>993.2408372599725</v>
+        <v>1093.246774266885</v>
       </c>
       <c r="N2" t="n">
-        <v>1371.572195947688</v>
+        <v>1471.578132954601</v>
       </c>
       <c r="O2" t="n">
-        <v>1676.576780420522</v>
+        <v>1776.582717427435</v>
       </c>
       <c r="P2" t="n">
-        <v>1904.733676876575</v>
+        <v>1904.733676876579</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999.165930563112</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R2" t="n">
-        <v>1999.165930563112</v>
+        <v>1908.527644058969</v>
       </c>
       <c r="S2" t="n">
-        <v>1999.165930563112</v>
+        <v>1721.298668689323</v>
       </c>
       <c r="T2" t="n">
-        <v>1999.165930563112</v>
+        <v>1496.939722420334</v>
       </c>
       <c r="U2" t="n">
-        <v>1882.078561357425</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="V2" t="n">
-        <v>1545.099287253367</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="W2" t="n">
-        <v>1182.564357110968</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="X2" t="n">
-        <v>1182.564357110968</v>
+        <v>860.0242456558219</v>
       </c>
       <c r="Y2" t="n">
-        <v>789.0225016868058</v>
+        <v>466.4823902316599</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>701.3176206841249</v>
+        <v>419.6172987679077</v>
       </c>
       <c r="C3" t="n">
-        <v>539.6139479250796</v>
+        <v>257.9136260088624</v>
       </c>
       <c r="D3" t="n">
-        <v>400.7753109152917</v>
+        <v>119.0749889990744</v>
       </c>
       <c r="E3" t="n">
-        <v>253.7473009721629</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="F3" t="n">
-        <v>119.0535029220373</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="I3" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2374651443684</v>
+        <v>100.2374651443685</v>
       </c>
       <c r="K3" t="n">
-        <v>329.728017704557</v>
+        <v>329.7280177045571</v>
       </c>
       <c r="L3" t="n">
         <v>695.5498628746727</v>
       </c>
       <c r="M3" t="n">
-        <v>810.0764926888939</v>
+        <v>1180.583216384899</v>
       </c>
       <c r="N3" t="n">
-        <v>1304.870060503264</v>
+        <v>1675.37678419927</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.070011287415</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="P3" t="n">
-        <v>1999.165930563112</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="Q3" t="n">
-        <v>1999.165930563112</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R3" t="n">
-        <v>1939.381661658058</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="S3" t="n">
-        <v>1939.381661658058</v>
+        <v>1846.366443575856</v>
       </c>
       <c r="T3" t="n">
-        <v>1939.381661658058</v>
+        <v>1657.681339741841</v>
       </c>
       <c r="U3" t="n">
-        <v>1720.886869256368</v>
+        <v>1439.186547340151</v>
       </c>
       <c r="V3" t="n">
-        <v>1492.491246704702</v>
+        <v>1210.790924788485</v>
       </c>
       <c r="W3" t="n">
-        <v>1251.175377938012</v>
+        <v>969.4750560217952</v>
       </c>
       <c r="X3" t="n">
-        <v>1053.258389815807</v>
+        <v>771.5580678995898</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.7370634653859</v>
+        <v>579.0367415491686</v>
       </c>
     </row>
     <row r="4">
@@ -4471,37 +4471,37 @@
         <v>572.0425638571948</v>
       </c>
       <c r="E4" t="n">
-        <v>520.7563674383614</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="F4" t="n">
-        <v>368.2757124641385</v>
+        <v>428.3329510499658</v>
       </c>
       <c r="G4" t="n">
-        <v>199.3559638319884</v>
+        <v>259.4132024178158</v>
       </c>
       <c r="H4" t="n">
-        <v>39.98331861126225</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="I4" t="n">
-        <v>39.98331861126225</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="J4" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="K4" t="n">
-        <v>73.58750635590566</v>
+        <v>73.58750635590573</v>
       </c>
       <c r="L4" t="n">
         <v>174.1945857561652</v>
       </c>
       <c r="M4" t="n">
-        <v>292.1880918837669</v>
+        <v>292.188091883767</v>
       </c>
       <c r="N4" t="n">
         <v>410.6104336333673</v>
       </c>
       <c r="O4" t="n">
-        <v>509.0740801290569</v>
+        <v>509.074080129057</v>
       </c>
       <c r="P4" t="n">
         <v>572.0425638571948</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.3746517994252</v>
+        <v>965.2218831227623</v>
       </c>
       <c r="C5" t="n">
-        <v>370.4408931322326</v>
+        <v>583.2881244555697</v>
       </c>
       <c r="D5" t="n">
-        <v>62.15768776609583</v>
+        <v>210.4641596827933</v>
       </c>
       <c r="E5" t="n">
-        <v>62.15768776609583</v>
+        <v>210.4641596827933</v>
       </c>
       <c r="F5" t="n">
-        <v>52.04690111667021</v>
+        <v>200.3533730333676</v>
       </c>
       <c r="G5" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="H5" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="I5" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="J5" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="K5" t="n">
-        <v>252.1162979219384</v>
+        <v>252.116297921942</v>
       </c>
       <c r="L5" t="n">
-        <v>600.0016710068846</v>
+        <v>600.0016710068883</v>
       </c>
       <c r="M5" t="n">
-        <v>993.2408372599725</v>
+        <v>993.2408372599762</v>
       </c>
       <c r="N5" t="n">
-        <v>1371.572195947688</v>
+        <v>1371.572195947692</v>
       </c>
       <c r="O5" t="n">
-        <v>1676.576780420522</v>
+        <v>1676.576780420526</v>
       </c>
       <c r="P5" t="n">
-        <v>1904.733676876575</v>
+        <v>1904.733676876579</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999.165930563112</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R5" t="n">
-        <v>1908.527644058966</v>
+        <v>1908.527644058969</v>
       </c>
       <c r="S5" t="n">
-        <v>1721.29866868932</v>
+        <v>1721.298668689323</v>
       </c>
       <c r="T5" t="n">
-        <v>1496.939722420331</v>
+        <v>1721.298668689323</v>
       </c>
       <c r="U5" t="n">
-        <v>1496.939722420331</v>
+        <v>1721.298668689323</v>
       </c>
       <c r="V5" t="n">
-        <v>1496.939722420331</v>
+        <v>1721.298668689323</v>
       </c>
       <c r="W5" t="n">
-        <v>1134.404792277932</v>
+        <v>1358.763738546924</v>
       </c>
       <c r="X5" t="n">
-        <v>752.3746517994252</v>
+        <v>1358.763738546924</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.3746517994252</v>
+        <v>965.2218831227623</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.6297216832888</v>
+        <v>419.6172987679077</v>
       </c>
       <c r="C6" t="n">
-        <v>528.9260489242436</v>
+        <v>257.9136260088624</v>
       </c>
       <c r="D6" t="n">
-        <v>390.0874119144557</v>
+        <v>119.0749889990744</v>
       </c>
       <c r="E6" t="n">
-        <v>243.0594019713269</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="F6" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="G6" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="I6" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="J6" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="K6" t="n">
-        <v>39.98331861126225</v>
+        <v>167.2715093930758</v>
       </c>
       <c r="L6" t="n">
-        <v>405.8051637813779</v>
+        <v>167.2715093930758</v>
       </c>
       <c r="M6" t="n">
-        <v>652.3048629032996</v>
+        <v>652.3048629033023</v>
       </c>
       <c r="N6" t="n">
-        <v>1147.09843071767</v>
+        <v>1147.098430717673</v>
       </c>
       <c r="O6" t="n">
-        <v>1539.298381501821</v>
+        <v>1539.298381501824</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777518</v>
+        <v>1841.394300777521</v>
       </c>
       <c r="Q6" t="n">
-        <v>1999.165930563112</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R6" t="n">
-        <v>1939.381661658058</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="S6" t="n">
-        <v>1786.582174670798</v>
+        <v>1846.366443575856</v>
       </c>
       <c r="T6" t="n">
-        <v>1786.582174670798</v>
+        <v>1657.681339741841</v>
       </c>
       <c r="U6" t="n">
-        <v>1710.198970255532</v>
+        <v>1439.186547340151</v>
       </c>
       <c r="V6" t="n">
-        <v>1481.803347703866</v>
+        <v>1210.790924788485</v>
       </c>
       <c r="W6" t="n">
-        <v>1240.487478937176</v>
+        <v>969.4750560217952</v>
       </c>
       <c r="X6" t="n">
-        <v>1042.570490814971</v>
+        <v>771.5580678995898</v>
       </c>
       <c r="Y6" t="n">
-        <v>850.0491644645497</v>
+        <v>579.0367415491686</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="C7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="D7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="E7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="F7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="G7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="H7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="I7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="J7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="K7" t="n">
-        <v>73.58750635590566</v>
+        <v>73.58750635590573</v>
       </c>
       <c r="L7" t="n">
         <v>174.1945857561652</v>
       </c>
       <c r="M7" t="n">
-        <v>292.1880918837669</v>
+        <v>292.188091883767</v>
       </c>
       <c r="N7" t="n">
         <v>410.6104336333673</v>
       </c>
       <c r="O7" t="n">
-        <v>509.0740801290569</v>
+        <v>509.074080129057</v>
       </c>
       <c r="P7" t="n">
         <v>572.0425638571948</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.0425638571948</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="R7" t="n">
-        <v>572.0425638571948</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="S7" t="n">
-        <v>572.0425638571948</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="T7" t="n">
-        <v>572.0425638571948</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="U7" t="n">
-        <v>572.0425638571948</v>
+        <v>326.1397200938632</v>
       </c>
       <c r="V7" t="n">
-        <v>311.3072594156174</v>
+        <v>326.1397200938632</v>
       </c>
       <c r="W7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="X7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.98331861126225</v>
+        <v>39.98331861126232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.88911800351</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.88911800351</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.065153230734</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="E8" t="n">
-        <v>872.2794333368408</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>419.2602748470663</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>407.1966923416583</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2033.430973427673</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2033.430973427673</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2033.430973427673</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2033.430973427673</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V8" t="n">
-        <v>2033.430973427673</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W8" t="n">
-        <v>2033.430973427673</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X8" t="n">
-        <v>2033.430973427673</v>
+        <v>1216.956456438673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.88911800351</v>
+        <v>823.414601014511</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>510.8867086332734</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>349.1830358742282</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>210.3443988644402</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3443988644402</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4914,19 +4914,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V9" t="n">
-        <v>1302.060334653851</v>
+        <v>1553.09119984256</v>
       </c>
       <c r="W9" t="n">
-        <v>1060.744465887161</v>
+        <v>1311.77533107587</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8274777649555</v>
+        <v>1113.858342953665</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.3061514145343</v>
+        <v>921.3370166032433</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1192.8716195019</v>
+        <v>1454.664124149643</v>
       </c>
       <c r="C11" t="n">
-        <v>921.9693209597395</v>
+        <v>1183.761825607483</v>
       </c>
       <c r="D11" t="n">
-        <v>921.9693209597395</v>
+        <v>921.9693209597388</v>
       </c>
       <c r="E11" t="n">
-        <v>638.2150611908785</v>
+        <v>638.2150611908779</v>
       </c>
       <c r="F11" t="n">
-        <v>638.2150611908785</v>
+        <v>638.2150611908779</v>
       </c>
       <c r="G11" t="n">
-        <v>333.1425347700985</v>
+        <v>333.1425347700981</v>
       </c>
       <c r="H11" t="n">
         <v>111.3527204924396</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5655260990735</v>
+        <v>230.3874601676176</v>
       </c>
       <c r="K11" t="n">
-        <v>361.7058981438563</v>
+        <v>579.3497662809444</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5912712288025</v>
+        <v>1036.057073434435</v>
       </c>
       <c r="M11" t="n">
-        <v>1102.83043748189</v>
+        <v>1452.436648544423</v>
       </c>
       <c r="N11" t="n">
-        <v>1589.98373023815</v>
+        <v>1830.768007232139</v>
       </c>
       <c r="O11" t="n">
-        <v>1938.116073033716</v>
+        <v>2135.772591704973</v>
       </c>
       <c r="P11" t="n">
-        <v>2275.094903558313</v>
+        <v>2363.929488161026</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.349091313394</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R11" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2402.15157606878</v>
+        <v>2404.512765339191</v>
       </c>
       <c r="T11" t="n">
-        <v>2288.824089924824</v>
+        <v>2291.185279195234</v>
       </c>
       <c r="U11" t="n">
-        <v>2144.97021376385</v>
+        <v>2291.185279195234</v>
       </c>
       <c r="V11" t="n">
-        <v>1919.022399784823</v>
+        <v>2291.185279195234</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.518929767456</v>
+        <v>2291.185279195234</v>
       </c>
       <c r="X11" t="n">
-        <v>1475.883698894887</v>
+        <v>2020.18659884176</v>
       </c>
       <c r="Y11" t="n">
-        <v>1475.883698894887</v>
+        <v>1737.67620354263</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011691</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510435</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895089</v>
+        <v>128.0235728743281</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I12" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
-        <v>49.56698182626788</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K12" t="n">
-        <v>264.1607466644879</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L12" t="n">
-        <v>629.9825918346036</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M12" t="n">
-        <v>1115.01594534483</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.281591467952</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.481542252103</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P12" t="n">
-        <v>2320.5774615278</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q12" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.56482240834</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S12" t="n">
-        <v>2265.76533542108</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2077.080231587066</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U12" t="n">
-        <v>1858.585439185376</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V12" t="n">
-        <v>1630.18981663371</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.8481468524134</v>
+        <v>323.678546029007</v>
       </c>
       <c r="C13" t="n">
-        <v>280.2636374391257</v>
+        <v>265.0940366157195</v>
       </c>
       <c r="D13" t="n">
-        <v>238.2232043919204</v>
+        <v>223.0536035685145</v>
       </c>
       <c r="E13" t="n">
-        <v>197.2456502782712</v>
+        <v>182.0760494548655</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7964554290803</v>
+        <v>140.6268546056749</v>
       </c>
       <c r="G13" t="n">
-        <v>97.90816692196206</v>
+        <v>82.7385660985571</v>
       </c>
       <c r="H13" t="n">
-        <v>49.56698182626788</v>
+        <v>82.7385660985571</v>
       </c>
       <c r="I13" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684246</v>
+        <v>99.5268163568428</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9529381700297</v>
+        <v>241.9529381700303</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388331</v>
+        <v>451.3819516388339</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349786</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531227</v>
+        <v>905.4416676531241</v>
       </c>
       <c r="O13" t="n">
-        <v>1112.727248217356</v>
+        <v>1112.727248217358</v>
       </c>
       <c r="P13" t="n">
-        <v>1284.517666014038</v>
+        <v>1284.51766601404</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.569151829063</v>
+        <v>1355.569151829064</v>
       </c>
       <c r="R13" t="n">
-        <v>1317.078830568473</v>
+        <v>1317.078830568474</v>
       </c>
       <c r="S13" t="n">
-        <v>1265.731816193316</v>
+        <v>1250.562215369908</v>
       </c>
       <c r="T13" t="n">
-        <v>1143.584323134027</v>
+        <v>1128.414722310619</v>
       </c>
       <c r="U13" t="n">
-        <v>967.4255437481584</v>
+        <v>952.255942924751</v>
       </c>
       <c r="V13" t="n">
-        <v>817.7216994316132</v>
+        <v>802.5520986082058</v>
       </c>
       <c r="W13" t="n">
-        <v>642.5967580740444</v>
+        <v>627.4271572506373</v>
       </c>
       <c r="X13" t="n">
-        <v>522.3757540944521</v>
+        <v>507.2061532710453</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.3720554117613</v>
+        <v>396.2024545883546</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1303.534855503422</v>
+        <v>1435.375332624883</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.534855503422</v>
+        <v>1164.473034082723</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.742350855678</v>
+        <v>1164.473034082723</v>
       </c>
       <c r="E14" t="n">
-        <v>757.9880910868166</v>
+        <v>880.7187743138619</v>
       </c>
       <c r="F14" t="n">
-        <v>638.2150611908786</v>
+        <v>577.5990437490644</v>
       </c>
       <c r="G14" t="n">
-        <v>333.1425347700986</v>
+        <v>272.5265173282846</v>
       </c>
       <c r="H14" t="n">
-        <v>111.3527204924399</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>230.3874601676174</v>
+        <v>230.3874601676176</v>
       </c>
       <c r="K14" t="n">
-        <v>579.349766280944</v>
+        <v>579.3497662809444</v>
       </c>
       <c r="L14" t="n">
-        <v>1036.057073434434</v>
+        <v>1036.057073434435</v>
       </c>
       <c r="M14" t="n">
-        <v>1472.423998010254</v>
+        <v>1452.436648544423</v>
       </c>
       <c r="N14" t="n">
-        <v>1850.75535669797</v>
+        <v>1830.768007232139</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.759941170804</v>
+        <v>2135.772591704973</v>
       </c>
       <c r="P14" t="n">
-        <v>2383.916837626857</v>
+        <v>2363.929488161026</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.349091313394</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R14" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="U14" t="n">
-        <v>2334.49521515242</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="V14" t="n">
-        <v>2108.547401173394</v>
+        <v>2252.401277334367</v>
       </c>
       <c r="W14" t="n">
-        <v>1857.043931156027</v>
+        <v>2000.897807317</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.045250802552</v>
+        <v>2000.897807317</v>
       </c>
       <c r="Y14" t="n">
-        <v>1303.534855503422</v>
+        <v>1718.38741201787</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.016190613132</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540868</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D15" t="n">
-        <v>538.4738808442988</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011701</v>
+        <v>391.4458709011691</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510444</v>
+        <v>256.7520728510435</v>
       </c>
       <c r="G15" t="n">
-        <v>128.023572874329</v>
+        <v>128.0235728743281</v>
       </c>
       <c r="H15" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I15" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J15" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K15" t="n">
-        <v>264.1607466644879</v>
+        <v>264.160746664487</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346036</v>
+        <v>629.9825918346027</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.01594534483</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.281591467952</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252103</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.5774615278</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q15" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.56482240834</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.76533542108</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587066</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185376</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.18981663371</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.87394786702</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.956959744814</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.435633394393</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323.6785460290084</v>
+        <v>372.019731124701</v>
       </c>
       <c r="C16" t="n">
-        <v>265.0940366157207</v>
+        <v>313.4352217114135</v>
       </c>
       <c r="D16" t="n">
-        <v>223.0536035685155</v>
+        <v>271.3947886642085</v>
       </c>
       <c r="E16" t="n">
-        <v>182.0760494548663</v>
+        <v>230.4172345505595</v>
       </c>
       <c r="F16" t="n">
-        <v>140.6268546056754</v>
+        <v>188.9680397013689</v>
       </c>
       <c r="G16" t="n">
-        <v>82.73856609855736</v>
+        <v>131.0797511942512</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855736</v>
+        <v>82.73856609855711</v>
       </c>
       <c r="I16" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684243</v>
+        <v>99.52681635684266</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9529381700297</v>
+        <v>241.9529381700302</v>
       </c>
       <c r="L16" t="n">
-        <v>451.381951638833</v>
+        <v>451.3819516388338</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349786</v>
+        <v>678.1973918349795</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531227</v>
+        <v>905.441667653124</v>
       </c>
       <c r="O16" t="n">
-        <v>1112.727248217356</v>
+        <v>1112.727248217358</v>
       </c>
       <c r="P16" t="n">
-        <v>1284.517666014038</v>
+        <v>1284.51766601404</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.569151829061</v>
+        <v>1355.569151829065</v>
       </c>
       <c r="R16" t="n">
-        <v>1317.078830568471</v>
+        <v>1317.078830568475</v>
       </c>
       <c r="S16" t="n">
-        <v>1250.562215369911</v>
+        <v>1214.400528097195</v>
       </c>
       <c r="T16" t="n">
-        <v>1128.414722310622</v>
+        <v>1092.253035037906</v>
       </c>
       <c r="U16" t="n">
-        <v>952.2559429247538</v>
+        <v>916.0942556520381</v>
       </c>
       <c r="V16" t="n">
-        <v>802.5520986082083</v>
+        <v>850.8932837038997</v>
       </c>
       <c r="W16" t="n">
-        <v>627.4271572506394</v>
+        <v>675.768342346331</v>
       </c>
       <c r="X16" t="n">
-        <v>507.2061532710472</v>
+        <v>555.547338366739</v>
       </c>
       <c r="Y16" t="n">
-        <v>396.2024545883563</v>
+        <v>444.5436396840485</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936778</v>
+        <v>916.1603581936776</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909887</v>
+        <v>694.1918370909884</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923629</v>
+        <v>452.8578451923628</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>241.2373981596338</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K17" t="n">
-        <v>650.7559067396755</v>
+        <v>650.7559067396742</v>
       </c>
       <c r="L17" t="n">
-        <v>998.6412798246217</v>
+        <v>998.6412798246204</v>
       </c>
       <c r="M17" t="n">
-        <v>1391.88044607771</v>
+        <v>1391.880446077708</v>
       </c>
       <c r="N17" t="n">
-        <v>1770.211804765425</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.216389238259</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P17" t="n">
-        <v>2303.373285694312</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q17" t="n">
-        <v>2397.805539380849</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.937314734952</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T17" t="n">
-        <v>2412.395567257167</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U17" t="n">
-        <v>2330.327429762365</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.16535444951</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W17" t="n">
-        <v>1976.447623098315</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.234681411013</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
         <v>1546.510024778054</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>898.8004595181867</v>
+        <v>860.497457018373</v>
       </c>
       <c r="C18" t="n">
-        <v>737.0967867591414</v>
+        <v>698.7937842593277</v>
       </c>
       <c r="D18" t="n">
-        <v>598.2581497493535</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E18" t="n">
-        <v>451.2301398062247</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F18" t="n">
-        <v>316.5363417560991</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G18" t="n">
-        <v>187.8078417793837</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H18" t="n">
-        <v>87.86998432608171</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K18" t="n">
-        <v>264.1607466644879</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L18" t="n">
-        <v>629.9825918346036</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M18" t="n">
-        <v>1115.01594534483</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N18" t="n">
-        <v>1626.281591467952</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.481542252103</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P18" t="n">
-        <v>2320.5774615278</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q18" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2478.349091313394</v>
+        <v>2440.04608881358</v>
       </c>
       <c r="S18" t="n">
-        <v>2325.549604326135</v>
+        <v>2287.246601826321</v>
       </c>
       <c r="T18" t="n">
-        <v>2136.86450049212</v>
+        <v>2098.561497992306</v>
       </c>
       <c r="U18" t="n">
-        <v>1918.36970809043</v>
+        <v>1880.066705590616</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.974085538764</v>
+        <v>1651.67108303895</v>
       </c>
       <c r="W18" t="n">
-        <v>1448.658216772074</v>
+        <v>1410.35521427226</v>
       </c>
       <c r="X18" t="n">
-        <v>1250.741228649869</v>
+        <v>1212.438226150055</v>
       </c>
       <c r="Y18" t="n">
-        <v>1058.219902299448</v>
+        <v>1019.916899799634</v>
       </c>
     </row>
     <row r="19">
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>83.1711695709113</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
         <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R19" t="n">
         <v>584.843044309075</v>
@@ -5716,7 +5716,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.30515171944372</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C20" t="n">
         <v>1116.16712417525</v>
@@ -5738,43 +5738,43 @@
         <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923627</v>
+        <v>452.8578451923625</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5710574377546</v>
+        <v>209.5710574377545</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>241.2373981596338</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>650.7559067396755</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L20" t="n">
-        <v>998.6412798246217</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M20" t="n">
-        <v>1391.88044607771</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N20" t="n">
-        <v>1770.211804765425</v>
+        <v>1481.161796169606</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.216389238259</v>
+        <v>1786.16638064244</v>
       </c>
       <c r="P20" t="n">
-        <v>2303.373285694312</v>
+        <v>2133.995149159053</v>
       </c>
       <c r="Q20" t="n">
         <v>2397.805539380849</v>
       </c>
       <c r="R20" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
         <v>2463.937314734951</v>
@@ -5783,13 +5783,13 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U20" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V20" t="n">
         <v>2166.165354449509</v>
       </c>
       <c r="W20" t="n">
-        <v>1976.447623098315</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X20" t="n">
         <v>1767.234681411012</v>
@@ -5820,43 +5820,43 @@
         <v>346.6156245662243</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895089</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H21" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I21" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3116809195627</v>
+        <v>264.160746664487</v>
       </c>
       <c r="L21" t="n">
-        <v>705.1335260896783</v>
+        <v>629.9825918346027</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.166879599905</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.281591467952</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252103</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P21" t="n">
-        <v>2320.5774615278</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q21" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.56482240834</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S21" t="n">
-        <v>2265.76533542108</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T21" t="n">
         <v>2166.943783302245</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G22" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I22" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J22" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K22" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N22" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O22" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P22" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q22" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R22" t="n">
         <v>584.843044309075</v>
@@ -5953,7 +5953,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.30515171944372</v>
+        <v>60.3051517194437</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.28368405124</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.167124175251</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936782</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909891</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923634</v>
+        <v>452.8578451923627</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5710574377554</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J23" t="n">
-        <v>290.9436626343326</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K23" t="n">
-        <v>700.4621712143744</v>
+        <v>650.7559067396737</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.347544299321</v>
+        <v>998.6412798246199</v>
       </c>
       <c r="M23" t="n">
-        <v>1441.586710552408</v>
+        <v>1391.880446077708</v>
       </c>
       <c r="N23" t="n">
-        <v>1819.918069240124</v>
+        <v>1770.211804765423</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.922653712958</v>
+        <v>2075.216389238257</v>
       </c>
       <c r="P23" t="n">
-        <v>2353.079550169011</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.511803855548</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S23" t="n">
-        <v>2463.937314734952</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T23" t="n">
-        <v>2412.395567257167</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762365</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V23" t="n">
-        <v>2166.16535444951</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W23" t="n">
         <v>1976.447623098315</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411013</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.510024778055</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>839.016190613132</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C24" t="n">
-        <v>677.3125178540868</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D24" t="n">
-        <v>538.4738808442988</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E24" t="n">
-        <v>391.4458709011701</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F24" t="n">
-        <v>256.7520728510444</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895089</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H24" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J24" t="n">
         <v>109.821128359374</v>
@@ -6078,40 +6078,40 @@
         <v>1190.166879599905</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467952</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.481542252103</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.5774615278</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313394</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R24" t="n">
-        <v>2418.56482240834</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S24" t="n">
-        <v>2265.76533542108</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T24" t="n">
-        <v>2077.080231587066</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U24" t="n">
-        <v>1858.585439185376</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V24" t="n">
-        <v>1630.18981663371</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W24" t="n">
-        <v>1388.87394786702</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.956959744814</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.435633394393</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626788</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K25" t="n">
-        <v>83.1711695709113</v>
+        <v>83.17116957091126</v>
       </c>
       <c r="L25" t="n">
         <v>183.7782489711708</v>
@@ -6160,37 +6160,37 @@
         <v>420.1940968483729</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6577433440626</v>
+        <v>518.6577433440625</v>
       </c>
       <c r="P25" t="n">
-        <v>581.6262270722004</v>
+        <v>581.6262270722003</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.6262270722004</v>
+        <v>581.6262270722003</v>
       </c>
       <c r="R25" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039664</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108492</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911531</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407797</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493828</v>
       </c>
       <c r="X25" t="n">
         <v>109.5231117359626</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.30515171944372</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1685.848684014687</v>
+        <v>1487.874329922789</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.490850103261</v>
+        <v>1220.516496011363</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.242810086251</v>
+        <v>962.2684559943532</v>
       </c>
       <c r="E26" t="n">
-        <v>880.0330149481238</v>
+        <v>682.0586608562267</v>
       </c>
       <c r="F26" t="n">
-        <v>580.4577490140609</v>
+        <v>382.4833949221634</v>
       </c>
       <c r="G26" t="n">
-        <v>278.9296872240157</v>
+        <v>80.95533313211764</v>
       </c>
       <c r="H26" t="n">
-        <v>60.68433757709138</v>
+        <v>80.95533313211764</v>
       </c>
       <c r="I26" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J26" t="n">
-        <v>244.9787457030237</v>
+        <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>597.4149816009332</v>
+        <v>597.4149816009331</v>
       </c>
       <c r="L26" t="n">
         <v>1057.596218539006</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.131248645221</v>
+        <v>1563.13124864522</v>
       </c>
       <c r="N26" t="n">
         <v>2053.758471186063</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.058919512024</v>
+        <v>2463.574721755309</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.511679821204</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q26" t="n">
-        <v>3010.755599604156</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R26" t="n">
-        <v>3034.216878854569</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S26" t="n">
-        <v>2982.098799903001</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.098799903001</v>
+        <v>2924.433857341342</v>
       </c>
       <c r="U26" t="n">
-        <v>2982.098799903001</v>
+        <v>2784.124445811103</v>
       </c>
       <c r="V26" t="n">
-        <v>2759.695450554708</v>
+        <v>2561.721096462811</v>
       </c>
       <c r="W26" t="n">
-        <v>2511.736445168076</v>
+        <v>2313.762091076178</v>
       </c>
       <c r="X26" t="n">
-        <v>2244.282229445335</v>
+        <v>2046.307875353438</v>
       </c>
       <c r="Y26" t="n">
-        <v>1965.31629877694</v>
+        <v>1767.341944685042</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.9970980791355</v>
+        <v>925.2844806190308</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2934253200903</v>
+        <v>763.5808078599855</v>
       </c>
       <c r="D27" t="n">
-        <v>639.4547883103023</v>
+        <v>624.7421708501976</v>
       </c>
       <c r="E27" t="n">
-        <v>492.4267783671735</v>
+        <v>477.7141609070688</v>
       </c>
       <c r="F27" t="n">
-        <v>357.7329803170478</v>
+        <v>343.0203628569432</v>
       </c>
       <c r="G27" t="n">
-        <v>229.0044803403323</v>
+        <v>214.2918628802277</v>
       </c>
       <c r="H27" t="n">
-        <v>129.0666228870304</v>
+        <v>114.3540054269258</v>
       </c>
       <c r="I27" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J27" t="n">
-        <v>120.9384841101975</v>
+        <v>120.9384841101974</v>
       </c>
       <c r="K27" t="n">
-        <v>350.4290366703862</v>
+        <v>350.4290366703861</v>
       </c>
       <c r="L27" t="n">
         <v>716.2508818405017</v>
@@ -6327,28 +6327,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.545729874343</v>
+        <v>2504.833112414238</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.746242887084</v>
+        <v>2352.033625426979</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.061139053069</v>
+        <v>2163.348521592964</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.566346651379</v>
+        <v>1944.853729191274</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.170724099713</v>
+        <v>1716.458106639608</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.854855333023</v>
+        <v>1475.142237872918</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.937867210818</v>
+        <v>1277.225249750713</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.416540860396</v>
+        <v>1084.703923400292</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.3258344603852</v>
+        <v>358.3258344603848</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778319</v>
+        <v>303.2857896778316</v>
       </c>
       <c r="D28" t="n">
-        <v>264.789821261361</v>
+        <v>264.7898212613609</v>
       </c>
       <c r="E28" t="n">
         <v>227.3567317784462</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4520015599898</v>
+        <v>189.4520015599897</v>
       </c>
       <c r="G28" t="n">
-        <v>135.1081776836062</v>
+        <v>135.1081776836061</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864644</v>
+        <v>90.31145721864635</v>
       </c>
       <c r="I28" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922487</v>
+        <v>114.1181018922486</v>
       </c>
       <c r="K28" t="n">
         <v>260.0181534900187</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434049</v>
+        <v>472.921096743405</v>
       </c>
       <c r="M28" t="n">
         <v>703.2104667241333</v>
       </c>
       <c r="N28" t="n">
-        <v>933.9286723268606</v>
+        <v>933.9286723268601</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.688182675677</v>
+        <v>1144.688182675676</v>
       </c>
       <c r="P28" t="n">
         <v>1319.952530256941</v>
@@ -6415,19 +6415,19 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024586</v>
+        <v>969.1809082024583</v>
       </c>
       <c r="V28" t="n">
         <v>823.0215285166473</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898129</v>
+        <v>651.4410517898128</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409551</v>
+        <v>534.7645124409549</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889986</v>
+        <v>427.3052783889984</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1694.688894071166</v>
+        <v>1744.089958050125</v>
       </c>
       <c r="C29" t="n">
-        <v>1427.33106015974</v>
+        <v>1476.732124138699</v>
       </c>
       <c r="D29" t="n">
-        <v>1169.08302014273</v>
+        <v>1218.484084121689</v>
       </c>
       <c r="E29" t="n">
-        <v>888.8732250046032</v>
+        <v>938.2742889835622</v>
       </c>
       <c r="F29" t="n">
-        <v>589.2979590705399</v>
+        <v>638.6990230494989</v>
       </c>
       <c r="G29" t="n">
-        <v>287.7698972804947</v>
+        <v>337.1709612594532</v>
       </c>
       <c r="H29" t="n">
-        <v>69.52454763357045</v>
+        <v>118.9256116125289</v>
       </c>
       <c r="I29" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J29" t="n">
-        <v>244.9787457030237</v>
+        <v>244.9787457030236</v>
       </c>
       <c r="K29" t="n">
-        <v>589.930783844222</v>
+        <v>589.9307838442184</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.112020782295</v>
+        <v>1050.112020782291</v>
       </c>
       <c r="M29" t="n">
-        <v>1555.64705088851</v>
+        <v>1555.647050888506</v>
       </c>
       <c r="N29" t="n">
-        <v>2046.274273429352</v>
+        <v>2046.274273429348</v>
       </c>
       <c r="O29" t="n">
-        <v>2463.574721755313</v>
+        <v>2463.574721755309</v>
       </c>
       <c r="P29" t="n">
-        <v>2804.027482064492</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q29" t="n">
-        <v>3010.755599604156</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R29" t="n">
-        <v>3034.216878854569</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S29" t="n">
-        <v>2961.563828240689</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="T29" t="n">
-        <v>2851.780806727466</v>
+        <v>2924.433857341342</v>
       </c>
       <c r="U29" t="n">
-        <v>2711.471395197227</v>
+        <v>2784.124445811103</v>
       </c>
       <c r="V29" t="n">
-        <v>2489.068045848935</v>
+        <v>2784.124445811103</v>
       </c>
       <c r="W29" t="n">
-        <v>2241.109040462302</v>
+        <v>2569.977719203514</v>
       </c>
       <c r="X29" t="n">
-        <v>1973.654824739562</v>
+        <v>2302.523503480773</v>
       </c>
       <c r="Y29" t="n">
-        <v>1694.688894071166</v>
+        <v>2023.557572812378</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.2844806190308</v>
+        <v>939.9970980791353</v>
       </c>
       <c r="C30" t="n">
-        <v>763.5808078599855</v>
+        <v>778.29342532009</v>
       </c>
       <c r="D30" t="n">
-        <v>624.7421708501976</v>
+        <v>639.4547883103021</v>
       </c>
       <c r="E30" t="n">
-        <v>477.7141609070688</v>
+        <v>492.4267783671734</v>
       </c>
       <c r="F30" t="n">
-        <v>343.0203628569432</v>
+        <v>357.7329803170477</v>
       </c>
       <c r="G30" t="n">
-        <v>229.0044803403323</v>
+        <v>229.0044803403322</v>
       </c>
       <c r="H30" t="n">
-        <v>129.0666228870304</v>
+        <v>129.0666228870303</v>
       </c>
       <c r="I30" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J30" t="n">
-        <v>120.9384841101975</v>
+        <v>120.9384841101974</v>
       </c>
       <c r="K30" t="n">
-        <v>350.4290366703862</v>
+        <v>350.4290366703861</v>
       </c>
       <c r="L30" t="n">
         <v>716.2508818405017</v>
@@ -6567,25 +6567,25 @@
         <v>2504.833112414238</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.033625426979</v>
+        <v>2366.746242887083</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.348521592964</v>
+        <v>2178.061139053068</v>
       </c>
       <c r="U30" t="n">
-        <v>1944.853729191274</v>
+        <v>1959.566346651379</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.458106639608</v>
+        <v>1731.170724099713</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.142237872918</v>
+        <v>1489.854855333023</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.225249750713</v>
+        <v>1291.937867210817</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.3258344603851</v>
+        <v>358.3258344603852</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2857896778319</v>
+        <v>303.285789677832</v>
       </c>
       <c r="D31" t="n">
-        <v>264.789821261361</v>
+        <v>264.7898212613611</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3567317784462</v>
+        <v>227.3567317784463</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4520015599897</v>
+        <v>189.4520015599898</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1081776836063</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31145721864647</v>
+        <v>90.31145721864638</v>
       </c>
       <c r="I31" t="n">
-        <v>60.68433757709138</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J31" t="n">
-        <v>114.1181018922487</v>
+        <v>114.1181018922484</v>
       </c>
       <c r="K31" t="n">
         <v>260.0181534900187</v>
@@ -6628,13 +6628,13 @@
         <v>472.9210967434049</v>
       </c>
       <c r="M31" t="n">
-        <v>703.2104667241333</v>
+        <v>703.2104667241331</v>
       </c>
       <c r="N31" t="n">
-        <v>933.9286723268604</v>
+        <v>933.9286723268601</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.688182675677</v>
+        <v>1144.688182675676</v>
       </c>
       <c r="P31" t="n">
         <v>1319.952530256941</v>
@@ -6661,10 +6661,10 @@
         <v>651.4410517898129</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7645124409548</v>
+        <v>534.7645124409551</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.3052783889984</v>
+        <v>427.3052783889986</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941256</v>
+        <v>821.8667872941255</v>
       </c>
       <c r="F32" t="n">
         <v>550.8831624099373</v>
@@ -6692,10 +6692,10 @@
         <v>277.9467416697667</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271704</v>
+        <v>88.29303307271695</v>
       </c>
       <c r="I32" t="n">
-        <v>58.6434000871544</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J32" t="n">
         <v>270.9604756060692</v>
@@ -6707,28 +6707,28 @@
         <v>1139.623283228016</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.862449481104</v>
+        <v>1594.123901918966</v>
       </c>
       <c r="N32" t="n">
-        <v>1911.19380816882</v>
+        <v>1972.455260606681</v>
       </c>
       <c r="O32" t="n">
-        <v>2356.516923887763</v>
+        <v>2277.459845079515</v>
       </c>
       <c r="P32" t="n">
-        <v>2724.992351589925</v>
+        <v>2645.935272781678</v>
       </c>
       <c r="Q32" t="n">
-        <v>2880.686057714325</v>
+        <v>2880.686057714324</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.17000435772</v>
+        <v>2932.170004357719</v>
       </c>
       <c r="S32" t="n">
-        <v>2888.108594793715</v>
+        <v>2888.108594793714</v>
       </c>
       <c r="T32" t="n">
-        <v>2806.917214330368</v>
+        <v>2806.917214330367</v>
       </c>
       <c r="U32" t="n">
         <v>2695.199443850002</v>
@@ -6737,7 +6737,7 @@
         <v>2501.387735551585</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.020371214828</v>
+        <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
         <v>2043.157796541962</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9561605891985</v>
+        <v>923.243543129094</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2524878301532</v>
+        <v>761.5398703700487</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4138508203653</v>
+        <v>622.7012333602607</v>
       </c>
       <c r="E33" t="n">
-        <v>490.3858408772364</v>
+        <v>475.673223417132</v>
       </c>
       <c r="F33" t="n">
-        <v>355.6920428271108</v>
+        <v>340.9794253670063</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9635428503954</v>
+        <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.6434000871544</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6801,28 +6801,28 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.504792384406</v>
+        <v>2502.792174924301</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.705305397146</v>
+        <v>2349.992687937042</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.020201563132</v>
+        <v>2161.307584103027</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.525409161442</v>
+        <v>1942.812791701337</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.129786609776</v>
+        <v>1714.417169149671</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.813917843086</v>
+        <v>1473.101300382981</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.896929720881</v>
+        <v>1275.184312260776</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.375603370459</v>
+        <v>1082.662985910355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213235</v>
+        <v>156.1434096213231</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886452</v>
+        <v>129.6950058886448</v>
       </c>
       <c r="D34" t="n">
-        <v>119.7906785220493</v>
+        <v>119.790678522049</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890095</v>
+        <v>110.9492300890092</v>
       </c>
       <c r="F34" t="n">
-        <v>101.636140920428</v>
+        <v>101.6361409204278</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391933</v>
+        <v>75.88395809391919</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883451</v>
+        <v>59.67887867883444</v>
       </c>
       <c r="I34" t="n">
-        <v>58.6434000871544</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J34" t="n">
         <v>140.0998317952942</v>
@@ -6862,46 +6862,46 @@
         <v>173.7040195399376</v>
       </c>
       <c r="L34" t="n">
-        <v>274.3110989401971</v>
+        <v>274.3110989401972</v>
       </c>
       <c r="M34" t="n">
-        <v>532.6231363139079</v>
+        <v>392.3046050677989</v>
       </c>
       <c r="N34" t="n">
-        <v>651.0454780635083</v>
+        <v>530.6720071060848</v>
       </c>
       <c r="O34" t="n">
-        <v>769.4541848478844</v>
+        <v>629.1356536017745</v>
       </c>
       <c r="P34" t="n">
-        <v>832.4226685760223</v>
+        <v>832.4226685760214</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686119</v>
+        <v>934.9707515686111</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886315</v>
+        <v>928.6165359886307</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979605</v>
+        <v>858.0743391979597</v>
       </c>
       <c r="T34" t="n">
-        <v>768.0629518192807</v>
+        <v>768.06295181928</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140219</v>
+        <v>624.0402781140212</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780859</v>
+        <v>506.4725394780853</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011264</v>
+        <v>363.4837038011258</v>
       </c>
       <c r="X34" t="n">
-        <v>275.3988055021435</v>
+        <v>275.398805502143</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.531212500062</v>
+        <v>196.5312125000615</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7011,13 +7011,13 @@
         <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>81.02642599070933</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>96.04791054150586</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>94.93529841688813</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478537</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614928</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7181,22 +7181,22 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
         <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P38" t="n">
         <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215968</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
@@ -7208,10 +7208,10 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040245</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449792</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351913</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920625</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419369</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652215</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119195</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7263,22 +7263,22 @@
         <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211972</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
         <v>2153.764858377958</v>
@@ -7293,10 +7293,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535706</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185285</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>51.10067436208573</v>
+        <v>55.64757392285512</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5844139977867</v>
+        <v>71.13131355855609</v>
       </c>
       <c r="F40" t="n">
-        <v>81.60589854858323</v>
+        <v>71.13131355855609</v>
       </c>
       <c r="G40" t="n">
-        <v>80.4932864239655</v>
+        <v>70.01870143393836</v>
       </c>
       <c r="H40" t="n">
-        <v>80.4932864239655</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="I40" t="n">
-        <v>96.20682289912145</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912145</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437649</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440244</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716261</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q40" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R40" t="n">
         <v>628.266068145054</v>
@@ -7363,19 +7363,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C41" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791955</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G41" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>163.2749745479474</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>567.8831210837625</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7684941687087</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7442,10 +7442,10 @@
         <v>2479.060069480717</v>
       </c>
       <c r="U41" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W41" t="n">
         <v>2028.08193847085</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E43" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="F43" t="n">
-        <v>52.2132864867035</v>
+        <v>80.56417090580489</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118716</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>87.71820369138581</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.721134500735</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478544</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614935</v>
+        <v>715.7657787614928</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
@@ -7658,40 +7658,40 @@
         <v>1104.364130017708</v>
       </c>
       <c r="N44" t="n">
-        <v>1598.504434506798</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>1827.875829091313</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R44" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S44" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7716,19 +7716,19 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E46" t="n">
-        <v>51.10067436208574</v>
+        <v>81.02642599070933</v>
       </c>
       <c r="F46" t="n">
-        <v>66.12215891288221</v>
+        <v>96.04791054150586</v>
       </c>
       <c r="G46" t="n">
-        <v>65.00954678826443</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="H46" t="n">
-        <v>65.00954678826443</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I46" t="n">
-        <v>65.00954678826443</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912213</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437655</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440251</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716268</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212272</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169168</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>393.0987406514973</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>317.3222226361507</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>231.1673670204492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>606.5066237084864</v>
+        <v>606.5066237084873</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>442.9191924129752</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8216,7 +8216,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>393.0987406514973</v>
+        <v>393.098740651501</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8295,16 +8295,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>240.5700992493066</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>364.4734976342882</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>606.5066237084864</v>
+        <v>606.5066237084873</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,7 +8541,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>328.7575477911314</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555166</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9006,7 +9006,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>328.7575477911314</v>
+        <v>328.7575477911305</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9243,7 +9243,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>328.7575477911314</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911305</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>547.2350520455337</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>547.2350520455337</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555157</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.174579601267</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0885332591497</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.337577377707404</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>223.6883358392361</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X11" t="n">
-        <v>78.56981498609744</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>47.85777324473699</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956658</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.81797521516176</v>
+        <v>35.80007039998647</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.1819585990573</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>268.193275556739</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.5132336621711</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>60.00985726739512</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.4355400921679</v>
+        <v>75.43554009216766</v>
       </c>
       <c r="T14" t="n">
-        <v>112.1942112825173</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473723</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.80007039999277</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>83.65784364472265</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.91501726620745e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>37.59057569560714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>20.32962194568816</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.90705333916893</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>33.47415599125304</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773439.4045181811</v>
+        <v>773439.4045181816</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773439.4045181813</v>
+        <v>773439.4045181816</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>827558.5474041132</v>
+        <v>827558.5474041129</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827558.5474041132</v>
+        <v>827558.5474041129</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>498955.6393212182</v>
+        <v>498955.6393212181</v>
       </c>
       <c r="C2" t="n">
+        <v>498955.639321218</v>
+      </c>
+      <c r="D2" t="n">
         <v>498955.6393212181</v>
       </c>
-      <c r="D2" t="n">
-        <v>498955.6393212183</v>
-      </c>
       <c r="E2" t="n">
-        <v>450178.1842993327</v>
+        <v>450178.1842993326</v>
       </c>
       <c r="F2" t="n">
-        <v>450178.1842993327</v>
+        <v>450178.1842993326</v>
       </c>
       <c r="G2" t="n">
-        <v>498955.6393212187</v>
+        <v>498955.6393212185</v>
       </c>
       <c r="H2" t="n">
-        <v>498955.6393212187</v>
+        <v>498955.6393212184</v>
       </c>
       <c r="I2" t="n">
+        <v>498955.6393212184</v>
+      </c>
+      <c r="J2" t="n">
+        <v>482110.130537529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>482110.1305375288</v>
+      </c>
+      <c r="L2" t="n">
         <v>498955.6393212185</v>
       </c>
-      <c r="J2" t="n">
-        <v>482110.1305375291</v>
-      </c>
-      <c r="K2" t="n">
-        <v>482110.1305375291</v>
-      </c>
-      <c r="L2" t="n">
-        <v>498955.6393212186</v>
-      </c>
       <c r="M2" t="n">
-        <v>498955.6393212182</v>
+        <v>498955.6393212185</v>
       </c>
       <c r="N2" t="n">
         <v>498955.6393212184</v>
       </c>
       <c r="O2" t="n">
-        <v>498955.6393212181</v>
+        <v>498955.6393212182</v>
       </c>
       <c r="P2" t="n">
-        <v>498955.639321218</v>
+        <v>498955.6393212182</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167491.6210370255</v>
+        <v>167491.6210370258</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156239039</v>
+        <v>7924.705156238778</v>
       </c>
       <c r="E3" t="n">
-        <v>116088.0659382697</v>
+        <v>116088.0659382699</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48934.30502360821</v>
+        <v>48934.30502360802</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208937.1379178785</v>
+        <v>208937.1379178786</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510918</v>
+        <v>71578.88473510904</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.5399958976</v>
+        <v>19514.53999589755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41809.82738295876</v>
+        <v>41809.82738295896</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203546.9821888938</v>
+        <v>203546.9821888936</v>
       </c>
       <c r="C4" t="n">
-        <v>203546.9821888938</v>
+        <v>203546.9821888936</v>
       </c>
       <c r="D4" t="n">
         <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
-        <v>146335.7066715066</v>
+        <v>146335.7066715068</v>
       </c>
       <c r="F4" t="n">
-        <v>146335.7066715066</v>
+        <v>146335.7066715069</v>
       </c>
       <c r="G4" t="n">
         <v>188927.0983995264</v>
@@ -26439,10 +26439,10 @@
         <v>188927.0983995264</v>
       </c>
       <c r="J4" t="n">
-        <v>173231.894840166</v>
+        <v>173231.8948401659</v>
       </c>
       <c r="K4" t="n">
-        <v>173231.894840166</v>
+        <v>173231.8948401659</v>
       </c>
       <c r="L4" t="n">
         <v>187777.9987838758</v>
@@ -26454,7 +26454,7 @@
         <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="P4" t="n">
         <v>187302.9854962235</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64014.92214455931</v>
+        <v>64014.92214455936</v>
       </c>
       <c r="C5" t="n">
-        <v>64014.92214455931</v>
+        <v>64014.92214455936</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26482,22 +26482,22 @@
         <v>46911.8669710024</v>
       </c>
       <c r="G5" t="n">
-        <v>52054.18958228955</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228955</v>
+        <v>52054.18958228953</v>
       </c>
       <c r="I5" t="n">
-        <v>52054.18958228955</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55656.05714269905</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="K5" t="n">
-        <v>55656.05714269904</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505466</v>
+        <v>56484.57861505465</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63902.11395073967</v>
+        <v>63902.11395073941</v>
       </c>
       <c r="C6" t="n">
-        <v>231393.734987765</v>
+        <v>231393.7349877651</v>
       </c>
       <c r="D6" t="n">
-        <v>228485.4663140095</v>
+        <v>228485.4663140096</v>
       </c>
       <c r="E6" t="n">
-        <v>140842.5447185539</v>
+        <v>140654.9391223155</v>
       </c>
       <c r="F6" t="n">
-        <v>256930.6106568237</v>
+        <v>256743.0050605853</v>
       </c>
       <c r="G6" t="n">
-        <v>209040.0463157945</v>
+        <v>209040.0463157946</v>
       </c>
       <c r="H6" t="n">
-        <v>257974.3513394027</v>
+        <v>257974.3513394025</v>
       </c>
       <c r="I6" t="n">
-        <v>257974.3513394026</v>
+        <v>257974.3513394025</v>
       </c>
       <c r="J6" t="n">
-        <v>44285.04063678553</v>
+        <v>44220.25021838676</v>
       </c>
       <c r="K6" t="n">
-        <v>253222.178554664</v>
+        <v>253157.3881362652</v>
       </c>
       <c r="L6" t="n">
         <v>183114.1771871789</v>
       </c>
       <c r="M6" t="n">
-        <v>239335.2969364506</v>
+        <v>239335.296936451</v>
       </c>
       <c r="N6" t="n">
         <v>258849.8369323484</v>
@@ -26561,7 +26561,7 @@
         <v>217040.0095493894</v>
       </c>
       <c r="P6" t="n">
-        <v>258849.8369323481</v>
+        <v>258849.8369323483</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F2" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G2" t="n">
         <v>171.0890268032919</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="C4" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283485</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283485</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283485</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283485</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283485</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="J4" t="n">
-        <v>758.5542197136422</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="K4" t="n">
-        <v>758.5542197136422</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894299</v>
+        <v>733.0425010894297</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.16788127951027</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.26228422869848</v>
+        <v>52.2622842286987</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888648</v>
+        <v>89.47360591888629</v>
       </c>
       <c r="M2" t="n">
-        <v>24.393174994872</v>
+        <v>24.39317499487194</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869845</v>
+        <v>52.2622842286987</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421221</v>
+        <v>25.51171862421137</v>
       </c>
       <c r="E4" t="n">
-        <v>94.28407156335822</v>
+        <v>94.284071563358</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260723</v>
+        <v>638.7584295260721</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.16788127951027</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869848</v>
+        <v>52.2622842286987</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421221</v>
+        <v>25.51171862421137</v>
       </c>
       <c r="M4" t="n">
-        <v>94.28407156335822</v>
+        <v>94.284071563358</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100.3006330210474</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>136.4199874095157</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67.25697615976348</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8601949661206</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>99.71558964164933</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.683331745324011</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>63.89535181257327</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>253.1765928024696</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>67.25697615976348</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>140.6904721065594</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>79.02648972294074</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>14.68413607146334</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>139.0613765839013</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>22.62789032313938</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>48.51673623083875</v>
+        <v>80.72744828998762</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>23.37415036050567</v>
       </c>
       <c r="N11" t="n">
-        <v>109.9211455237817</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>43.56339224518439</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>109.9211455237817</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.9211455237817</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="12">
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21.26645374118931</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>88.96491619802779</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M14" t="n">
-        <v>43.56339224518405</v>
+        <v>23.37415036050567</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>21.26645374118844</v>
+        <v>21.26645374118931</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.9211455237817</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>120.8806788490507</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K17" t="n">
-        <v>171.0890268032919</v>
+        <v>120.8806788490494</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>29.77848998202393</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>21.26645374118933</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.249310340277432</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S19" t="n">
         <v>171.0890268032919</v>
@@ -28822,28 +28822,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>120.8806788490507</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>120.8806788490501</v>
+      </c>
+      <c r="Q20" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>171.0890268032919</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.77848998202506</v>
       </c>
       <c r="T21" t="n">
-        <v>88.96491619802808</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>161.0282291087963</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S22" t="n">
         <v>171.0890268032919</v>
@@ -29062,28 +29062,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="K23" t="n">
+        <v>120.880678849049</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>120.8806788490505</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>88.96491619802805</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.77848998202597</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29311,13 +29311,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943558</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.8703697943587</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550348</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>105.8703697943591</v>
+        <v>105.8703697943555</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="K32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>61.88025498773874</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.88025498773973</v>
+        <v>141.735890147585</v>
       </c>
       <c r="R32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>20.14652554412685</v>
       </c>
       <c r="O34" t="n">
-        <v>20.14652554412773</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="R34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="35">
@@ -30010,16 +30010,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>40.58157162934944</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550325</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,25 +30147,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>159.063286932391</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30253,16 +30253,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.58157162934918</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40.58157162934964</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550415</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30384,22 +30384,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>156.1340020796759</v>
       </c>
       <c r="E40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>158.6332730191623</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,28 +30481,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>40.58157162934945</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,22 +30621,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>151.3353767894449</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.68561682995329</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30730,19 +30730,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>40.58157162934896</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F46" t="n">
         <v>166.1290651424569</v>
@@ -30870,13 +30870,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>159.063286932391</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>90.96906631194648</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>214.2757366774507</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>129.4454135849942</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>115.6834644588093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>327.0597438018641</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>214.2757366774507</v>
+        <v>214.2757366774542</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.5739300826399</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>248.9895950726483</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>499.7914826407781</v>
+        <v>499.791482640779</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,7 +35261,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>182.6469478195452</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>352.4871778922493</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>461.3205122762529</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>420.5854294040288</v>
       </c>
       <c r="N11" t="n">
-        <v>492.0740330871309</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>351.6488311066328</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>340.3826570955526</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.3072603586675</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.18924188467673</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>216.7613786244647</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062412</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.46447932381268</v>
+        <v>50.46447932381292</v>
       </c>
       <c r="K13" t="n">
-        <v>143.86476950827</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L13" t="n">
-        <v>211.5444580492963</v>
+        <v>211.5444580492966</v>
       </c>
       <c r="M13" t="n">
-        <v>229.1065052486319</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.53967254358</v>
+        <v>229.5396725435803</v>
       </c>
       <c r="O13" t="n">
-        <v>209.3793743073066</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P13" t="n">
-        <v>173.5256745421027</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.76917759093382</v>
+        <v>71.76917759093406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.6469478195449</v>
+        <v>182.6469478195452</v>
       </c>
       <c r="K14" t="n">
-        <v>352.4871778922491</v>
+        <v>352.4871778922493</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3205122762526</v>
+        <v>461.3205122762529</v>
       </c>
       <c r="M14" t="n">
-        <v>440.7746712887072</v>
+        <v>420.5854294040288</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
@@ -35668,7 +35668,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.18924188467673</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>216.7613786244647</v>
+        <v>216.7613786244638</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.46447932381268</v>
+        <v>50.46447932381292</v>
       </c>
       <c r="K16" t="n">
-        <v>143.86476950827</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L16" t="n">
-        <v>211.5444580492963</v>
+        <v>211.5444580492966</v>
       </c>
       <c r="M16" t="n">
-        <v>229.1065052486319</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.53967254358</v>
+        <v>229.5396725435803</v>
       </c>
       <c r="O16" t="n">
-        <v>209.3793743073066</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P16" t="n">
-        <v>173.5256745421027</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.76917759093382</v>
+        <v>71.76917759093406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>193.606481144814</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K17" t="n">
-        <v>413.6550591717594</v>
+        <v>363.4467112175168</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>216.7613786244647</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
-        <v>122.4346700651277</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>193.606481144814</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.6550591717594</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36136,10 +36136,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>351.3421904208211</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.4751416381778</v>
       </c>
       <c r="R20" t="n">
         <v>81.35712316418676</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244638</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>440.5199109778254</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.249310340277414</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>243.8148290990552</v>
       </c>
       <c r="K23" t="n">
-        <v>413.6550591717594</v>
+        <v>363.4467112175164</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>31.14877520994528</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>440.5199109778254</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062321</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36607,16 +36607,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>413.9558086558043</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.2564846292446</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>348.4364021628265</v>
+        <v>348.436402162823</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.4616924433482</v>
+        <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
         <v>384.3019225160524</v>
@@ -37075,22 +37075,22 @@
         <v>493.1352569000559</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>459.0915340312619</v>
       </c>
       <c r="N32" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>449.8213290090334</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
         <v>372.1974017193559</v>
       </c>
       <c r="Q32" t="n">
-        <v>157.2663698226256</v>
+        <v>237.1220049824709</v>
       </c>
       <c r="R32" t="n">
-        <v>52.00398650847976</v>
+        <v>52.00398650847981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.27922394761595</v>
+        <v>82.279223947616</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37233,16 +37233,16 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>260.9212498724352</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>139.7650525639252</v>
       </c>
       <c r="O34" t="n">
-        <v>119.6047543276527</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.340419165906</v>
       </c>
       <c r="Q34" t="n">
         <v>103.5839222147371</v>
@@ -37306,16 +37306,16 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37327,7 +37327,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,25 +37443,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.284368163872038</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37549,16 +37549,16 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907976</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789106</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37680,22 +37680,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.592827839160986</v>
       </c>
       <c r="E40" t="n">
         <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>15.87225906581409</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.3073739251127</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37792,16 +37792,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335173</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37917,22 +37917,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.574362836096604</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>146.1438456134782</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38026,19 +38026,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>348.6670104907974</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38154,25 +38154,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797623</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.284368163872038</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.51240011197747</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
